--- a/server/text_preproc_info/abbriviations.xlsx
+++ b/server/text_preproc_info/abbriviations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="97">
   <si>
     <t>abbreviation</t>
   </si>
@@ -69,12 +69,6 @@
     <t>отделение</t>
   </si>
   <si>
-    <t>под</t>
-  </si>
-  <si>
-    <t>подготовка</t>
-  </si>
-  <si>
     <t>2-е</t>
   </si>
   <si>
@@ -117,15 +111,6 @@
     <t>минеральные</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
     <t>диск-ие</t>
   </si>
   <si>
@@ -138,9 +123,6 @@
     <t>рапс</t>
   </si>
   <si>
-    <t>рапс зимый</t>
-  </si>
-  <si>
     <t>2-я</t>
   </si>
   <si>
@@ -165,10 +147,169 @@
     <t>валовый</t>
   </si>
   <si>
-    <t>по</t>
-  </si>
-  <si>
-    <t>подразделение</t>
+    <t>предп</t>
+  </si>
+  <si>
+    <t>предпосевная</t>
+  </si>
+  <si>
+    <t>пред</t>
+  </si>
+  <si>
+    <t>культ</t>
+  </si>
+  <si>
+    <t>культивация</t>
+  </si>
+  <si>
+    <t>кук/силос</t>
+  </si>
+  <si>
+    <t>кукурузный силос</t>
+  </si>
+  <si>
+    <t>кук</t>
+  </si>
+  <si>
+    <t>кукурузный</t>
+  </si>
+  <si>
+    <t>кук с</t>
+  </si>
+  <si>
+    <t>подс</t>
+  </si>
+  <si>
+    <t>подсолнухи</t>
+  </si>
+  <si>
+    <t>сах/свёкла</t>
+  </si>
+  <si>
+    <t>сах/свекл</t>
+  </si>
+  <si>
+    <t>сах/свёкл</t>
+  </si>
+  <si>
+    <t>с св</t>
+  </si>
+  <si>
+    <t>оз п</t>
+  </si>
+  <si>
+    <t>озимая пшеница</t>
+  </si>
+  <si>
+    <t>оз. п</t>
+  </si>
+  <si>
+    <t>выкаш</t>
+  </si>
+  <si>
+    <t>выкашивание</t>
+  </si>
+  <si>
+    <t>отц</t>
+  </si>
+  <si>
+    <t>форм</t>
+  </si>
+  <si>
+    <t>формирование</t>
+  </si>
+  <si>
+    <t>под/г</t>
+  </si>
+  <si>
+    <t>подготовка грунта</t>
+  </si>
+  <si>
+    <t>отцовские травы</t>
+  </si>
+  <si>
+    <t>отц т</t>
+  </si>
+  <si>
+    <t>отц тр</t>
+  </si>
+  <si>
+    <t>отц тр.</t>
+  </si>
+  <si>
+    <t>отц т.</t>
+  </si>
+  <si>
+    <t>сев</t>
+  </si>
+  <si>
+    <t>посев</t>
+  </si>
+  <si>
+    <t>сах.</t>
+  </si>
+  <si>
+    <t>с. св</t>
+  </si>
+  <si>
+    <t>выравн</t>
+  </si>
+  <si>
+    <t>сзр</t>
+  </si>
+  <si>
+    <t>срадство защиты растений</t>
+  </si>
+  <si>
+    <t>прокат</t>
+  </si>
+  <si>
+    <t>прокатывание</t>
+  </si>
+  <si>
+    <t>вырав</t>
+  </si>
+  <si>
+    <t>культура</t>
+  </si>
+  <si>
+    <t>культ.</t>
+  </si>
+  <si>
+    <t>культура.</t>
+  </si>
+  <si>
+    <t>сах.св.</t>
+  </si>
+  <si>
+    <t>пшен</t>
+  </si>
+  <si>
+    <t>дисков</t>
+  </si>
+  <si>
+    <t>ячм</t>
+  </si>
+  <si>
+    <t>ячмень</t>
+  </si>
+  <si>
+    <t>сах/св</t>
+  </si>
+  <si>
+    <t>кук/сил</t>
+  </si>
+  <si>
+    <t>кук/зерно</t>
+  </si>
+  <si>
+    <t>кукурузное зерно</t>
+  </si>
+  <si>
+    <t>кук/зерн</t>
+  </si>
+  <si>
+    <t>кук/з</t>
   </si>
 </sst>
 </file>
@@ -531,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A93" sqref="A29:A93"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,22 +720,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A68" si="0">A4+1</f>
+        <f t="shared" ref="A5:A66" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,10 +768,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,10 +780,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,10 +792,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,10 +804,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -687,10 +828,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -699,10 +840,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,10 +852,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -735,10 +876,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -747,10 +888,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,10 +900,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,10 +924,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,10 +936,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,10 +948,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,10 +960,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -831,10 +972,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -843,10 +984,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +996,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,10 +1008,466 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
